--- a/Wellsfergo CapstoneProject Batches Allocation.xlsx
+++ b/Wellsfergo CapstoneProject Batches Allocation.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellsfergo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellsfergo\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A2D857-E83F-47F7-807E-352C56520220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{305D20DB-1A6A-48EB-8474-2014E9728C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{537DDBA4-344D-4DC2-896C-DBB4A48E3592}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{537DDBA4-344D-4DC2-896C-DBB4A48E3592}"/>
   </bookViews>
   <sheets>
-    <sheet name="Batch-1" sheetId="1" r:id="rId1"/>
-    <sheet name="Batch-2" sheetId="2" r:id="rId2"/>
-    <sheet name="Batch-3" sheetId="3" r:id="rId3"/>
-    <sheet name="Batch-4" sheetId="4" r:id="rId4"/>
+    <sheet name="Guidelines" sheetId="5" r:id="rId1"/>
+    <sheet name="Batch-1" sheetId="1" r:id="rId2"/>
+    <sheet name="Batch-2" sheetId="2" r:id="rId3"/>
+    <sheet name="Batch-3" sheetId="3" r:id="rId4"/>
+    <sheet name="Batch-4" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="136">
   <si>
     <t>AKANKSHA DHYANI</t>
   </si>
@@ -396,6 +397,57 @@
   </si>
   <si>
     <t xml:space="preserve">Email id </t>
+  </si>
+  <si>
+    <t>Project-6</t>
+  </si>
+  <si>
+    <t>ProjectNo</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>General Guidelines</t>
+  </si>
+  <si>
+    <t>Backend - Springboot, Springdata JPA for database connectivity</t>
+  </si>
+  <si>
+    <t>Database - MySQL  or Oracle</t>
+  </si>
+  <si>
+    <t>Final evaluation is made both on group and individual performance</t>
+  </si>
+  <si>
+    <t>There will be a final panel project presentation on 10/11/2022</t>
+  </si>
+  <si>
+    <t>Each Team need to prepare a neat powerpoint presentation for the final panel presentation</t>
+  </si>
+  <si>
+    <t>Every project should implement on the REST API based only, no spring mvc or servlets or jsp alone are not used</t>
+  </si>
+  <si>
+    <t>Front End - Only React</t>
+  </si>
+  <si>
+    <t>Every team must attend for the sprint standup calls every day and have to update their progress, both in morning and evening</t>
+  </si>
+  <si>
+    <t>Each day's task must be completed strictly on that day itself.</t>
+  </si>
+  <si>
+    <t>Mentor email id: praveenk@rpsconsulting.in</t>
+  </si>
+  <si>
+    <t>Whatsup No. 9502110230</t>
+  </si>
+  <si>
+    <t>Evaluation will be done on a. functionality implementation, technologies and architecture used, user interface design and technical discussion</t>
+  </si>
+  <si>
+    <t>Project Duration is of 5 working days ie., from 03/11/2022 to 09/11/2022 (Both days inclusive, excluding weekend holidays)</t>
   </si>
 </sst>
 </file>
@@ -425,15 +477,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -561,11 +619,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -573,13 +655,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -588,13 +674,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,16 +1012,227 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A76C05-5931-4052-8E26-36FA9C6B2D47}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B873B61C-14F1-4BD8-9F2B-F2D3D08F6FB1}">
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
     <col min="3" max="3" width="22.140625" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
@@ -925,19 +1240,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -948,13 +1263,13 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -963,9 +1278,9 @@
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -974,9 +1289,9 @@
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -985,35 +1300,35 @@
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1022,11 +1337,11 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1035,37 +1350,37 @@
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1074,26 +1389,26 @@
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1102,11 +1417,11 @@
       <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1115,11 +1430,11 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1128,11 +1443,11 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1141,13 +1456,13 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1156,11 +1471,11 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1169,11 +1484,11 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1182,11 +1497,11 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1195,26 +1510,26 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1223,11 +1538,11 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1236,11 +1551,11 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1249,11 +1564,11 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1262,11 +1577,11 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1286,12 +1601,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC9A30C-4112-4D49-A15E-EAD5FA1E5A6B}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E26"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,19 +1618,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1326,13 +1641,13 @@
       <c r="B2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1341,9 +1656,9 @@
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1352,9 +1667,9 @@
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1363,9 +1678,9 @@
       <c r="B5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1374,9 +1689,9 @@
       <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1385,13 +1700,13 @@
       <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1400,11 +1715,11 @@
       <c r="B8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1413,11 +1728,11 @@
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1426,11 +1741,11 @@
       <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1439,11 +1754,11 @@
       <c r="B11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1452,13 +1767,13 @@
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1467,11 +1782,11 @@
       <c r="B13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1480,11 +1795,11 @@
       <c r="B14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1493,11 +1808,11 @@
       <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1506,11 +1821,11 @@
       <c r="B16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1519,13 +1834,13 @@
       <c r="B17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1534,11 +1849,11 @@
       <c r="B18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1547,11 +1862,11 @@
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1560,11 +1875,11 @@
       <c r="B20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1573,11 +1888,11 @@
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1586,13 +1901,13 @@
       <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1601,11 +1916,11 @@
       <c r="B23" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1614,11 +1929,11 @@
       <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1627,11 +1942,11 @@
       <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1640,34 +1955,34 @@
       <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="D22:D26"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C7:C11"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="C17:C21"/>
     <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7D7D65-FFE7-4E0A-81EE-1AAB540C10C1}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E26"/>
     </sheetView>
   </sheetViews>
@@ -1680,19 +1995,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1703,13 +2018,13 @@
       <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -1718,9 +2033,9 @@
       <c r="B3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -1729,9 +2044,9 @@
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -1740,9 +2055,9 @@
       <c r="B5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -1751,9 +2066,9 @@
       <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -1762,13 +2077,13 @@
       <c r="B7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -1777,11 +2092,11 @@
       <c r="B8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -1790,11 +2105,11 @@
       <c r="B9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -1803,11 +2118,11 @@
       <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -1816,11 +2131,11 @@
       <c r="B11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -1829,13 +2144,13 @@
       <c r="B12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -1844,11 +2159,11 @@
       <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -1857,11 +2172,11 @@
       <c r="B14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -1870,11 +2185,11 @@
       <c r="B15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -1883,11 +2198,11 @@
       <c r="B16" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -1896,13 +2211,13 @@
       <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -1911,11 +2226,11 @@
       <c r="B18" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -1924,11 +2239,11 @@
       <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -1937,11 +2252,11 @@
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -1950,11 +2265,11 @@
       <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1963,13 +2278,13 @@
       <c r="B22" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -1978,11 +2293,11 @@
       <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1991,11 +2306,11 @@
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2004,11 +2319,11 @@
       <c r="B25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2017,11 +2332,11 @@
       <c r="B26" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2040,12 +2355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6BAFA80-F725-4924-A2BF-DA78A08CB069}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2057,19 +2372,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="5" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2080,13 +2395,13 @@
       <c r="B2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -2095,9 +2410,9 @@
       <c r="B3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="9"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -2106,9 +2421,9 @@
       <c r="B4" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -2117,9 +2432,9 @@
       <c r="B5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -2128,9 +2443,9 @@
       <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="9"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -2139,13 +2454,13 @@
       <c r="B7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="9"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -2154,11 +2469,11 @@
       <c r="B8" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="9"/>
+      <c r="C8" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -2167,11 +2482,11 @@
       <c r="B9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9"/>
+      <c r="C9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -2180,11 +2495,11 @@
       <c r="B10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="9"/>
+      <c r="C10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -2193,11 +2508,11 @@
       <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9"/>
+      <c r="C11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -2206,13 +2521,13 @@
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -2221,11 +2536,11 @@
       <c r="B13" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -2234,11 +2549,11 @@
       <c r="B14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="9"/>
+      <c r="C14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -2247,11 +2562,11 @@
       <c r="B15" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="9"/>
+      <c r="C15" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -2260,11 +2575,11 @@
       <c r="B16" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="9"/>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -2273,13 +2588,13 @@
       <c r="B17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="C17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -2288,11 +2603,11 @@
       <c r="B18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="9"/>
+      <c r="C18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -2301,11 +2616,11 @@
       <c r="B19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="9"/>
+      <c r="C19" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -2314,11 +2629,11 @@
       <c r="B20" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -2327,11 +2642,11 @@
       <c r="B21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="9"/>
+      <c r="C21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -2340,13 +2655,13 @@
       <c r="B22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E22" s="9"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -2355,9 +2670,9 @@
       <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="9"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -2366,9 +2681,9 @@
       <c r="B24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="9"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -2377,9 +2692,9 @@
       <c r="B25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="9"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -2388,9 +2703,9 @@
       <c r="B26" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="9"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -2399,9 +2714,9 @@
       <c r="B27" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="10">
